--- a/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par saison/evo_physical.xlsx
+++ b/Métriques discriminantes/Tableau métriques/Evolutions métriques/Par saison/evo_physical.xlsx
@@ -446,7 +446,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F81"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,7 +489,7 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_otip</t>
+          <t>sprint_count_per30otip</t>
         </is>
       </c>
       <c r="B2" s="1" t="inlineStr">
@@ -498,16 +498,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>32.45244903266887</v>
+        <v>55.9244447078005</v>
       </c>
       <c r="D2" t="n">
-        <v>37.16239915648866</v>
+        <v>63.22428097371461</v>
       </c>
       <c r="E2" t="n">
-        <v>38.50809382178639</v>
+        <v>63.48759140672487</v>
       </c>
       <c r="F2" t="n">
-        <v>18.66005484831513</v>
+        <v>13.52386552685687</v>
       </c>
     </row>
     <row r="3">
@@ -518,22 +518,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>36.55165413187867</v>
+        <v>56.97268635388353</v>
       </c>
       <c r="D3" t="n">
-        <v>38.1755827592341</v>
+        <v>59.9632252465669</v>
       </c>
       <c r="E3" t="n">
-        <v>40.03950666663555</v>
+        <v>63.15464083475147</v>
       </c>
       <c r="F3" t="n">
-        <v>9.542256342688846</v>
+        <v>10.85073370504065</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_otip</t>
+          <t>sprint_distance_per30otip</t>
         </is>
       </c>
       <c r="B4" s="1" t="inlineStr">
@@ -542,16 +542,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>634.1503752377159</v>
+        <v>1141.340172683105</v>
       </c>
       <c r="D4" t="n">
-        <v>707.7137791400927</v>
+        <v>1237.930114651542</v>
       </c>
       <c r="E4" t="n">
-        <v>747.5556612977246</v>
+        <v>1287.34864199661</v>
       </c>
       <c r="F4" t="n">
-        <v>17.88302751023333</v>
+        <v>12.79272146973174</v>
       </c>
     </row>
     <row r="5">
@@ -562,22 +562,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>700.9040554317363</v>
+        <v>1139.172595829921</v>
       </c>
       <c r="D5" t="n">
-        <v>727.1140904712178</v>
+        <v>1184.996756732652</v>
       </c>
       <c r="E5" t="n">
-        <v>763.0579548200596</v>
+        <v>1256.2934591477</v>
       </c>
       <c r="F5" t="n">
-        <v>8.867675811925265</v>
+        <v>10.28122198045441</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_otip</t>
+          <t>sprint_distance_per_Match</t>
         </is>
       </c>
       <c r="B6" s="1" t="inlineStr">
@@ -586,16 +586,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3101.856167357678</v>
+        <v>1531.661640779825</v>
       </c>
       <c r="D6" t="n">
-        <v>3413.389484521112</v>
+        <v>1617.09072264251</v>
       </c>
       <c r="E6" t="n">
-        <v>3545.963113487038</v>
+        <v>1721.497981666071</v>
       </c>
       <c r="F6" t="n">
-        <v>14.31745774684562</v>
+        <v>12.39414344734738</v>
       </c>
     </row>
     <row r="7">
@@ -606,22 +606,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>3350.017543582269</v>
+        <v>1538.642600924807</v>
       </c>
       <c r="D7" t="n">
-        <v>3435.329989578204</v>
+        <v>1598.663014577764</v>
       </c>
       <c r="E7" t="n">
-        <v>3639.765851040218</v>
+        <v>1657.854879603539</v>
       </c>
       <c r="F7" t="n">
-        <v>8.649157913009404</v>
+        <v>7.747886260726111</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_otip</t>
+          <t>sprint_distance_per30tip</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
@@ -630,16 +630,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2467.705792119961</v>
+        <v>1262.520928711238</v>
       </c>
       <c r="D8" t="n">
-        <v>2705.675705381019</v>
+        <v>1385.144111842591</v>
       </c>
       <c r="E8" t="n">
-        <v>2798.407452189314</v>
+        <v>1418.5519940215</v>
       </c>
       <c r="F8" t="n">
-        <v>13.40117858155421</v>
+        <v>12.35869138973685</v>
       </c>
     </row>
     <row r="9">
@@ -650,22 +650,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>2649.113488150534</v>
+        <v>1280.973969883867</v>
       </c>
       <c r="D9" t="n">
-        <v>2708.215899106986</v>
+        <v>1342.020831878471</v>
       </c>
       <c r="E9" t="n">
-        <v>2876.707896220159</v>
+        <v>1419.965628135938</v>
       </c>
       <c r="F9" t="n">
-        <v>8.591342314614044</v>
+        <v>10.85046702898043</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_otip</t>
+          <t>sprint_count_per_Match</t>
         </is>
       </c>
       <c r="B10" s="1" t="inlineStr">
@@ -674,16 +674,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>259.2020930283394</v>
+        <v>88.43482101811608</v>
       </c>
       <c r="D10" t="n">
-        <v>285.5495749623238</v>
+        <v>94.68881990573875</v>
       </c>
       <c r="E10" t="n">
-        <v>293.2045863022246</v>
+        <v>98.25581575995547</v>
       </c>
       <c r="F10" t="n">
-        <v>13.11813993344858</v>
+        <v>11.10534812958748</v>
       </c>
     </row>
     <row r="11">
@@ -694,22 +694,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>283.0293568729629</v>
+        <v>89.84853943724046</v>
       </c>
       <c r="D11" t="n">
-        <v>290.2838287275494</v>
+        <v>93.38509242795836</v>
       </c>
       <c r="E11" t="n">
-        <v>304.0959348734918</v>
+        <v>96.39953746227864</v>
       </c>
       <c r="F11" t="n">
-        <v>7.443248372989289</v>
+        <v>7.291156947091031</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_all</t>
+          <t>sprint_count_per30tip</t>
         </is>
       </c>
       <c r="B12" s="1" t="inlineStr">
@@ -718,16 +718,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>1531.661640779825</v>
+        <v>61.17523110890058</v>
       </c>
       <c r="D12" t="n">
-        <v>1617.09072264251</v>
+        <v>66.60103477939455</v>
       </c>
       <c r="E12" t="n">
-        <v>1721.497981666071</v>
+        <v>67.66749052465681</v>
       </c>
       <c r="F12" t="n">
-        <v>12.39414344734738</v>
+        <v>10.61256214005811</v>
       </c>
     </row>
     <row r="13">
@@ -738,22 +738,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>1538.642600924807</v>
+        <v>63.16292791950978</v>
       </c>
       <c r="D13" t="n">
-        <v>1598.663014577764</v>
+        <v>65.28575523971874</v>
       </c>
       <c r="E13" t="n">
-        <v>1657.854879603539</v>
+        <v>68.29761188990288</v>
       </c>
       <c r="F13" t="n">
-        <v>7.747886260726111</v>
+        <v>8.129268448315702</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_otip</t>
+          <t>hi_distance_per30otip</t>
         </is>
       </c>
       <c r="B14" s="1" t="inlineStr">
@@ -762,16 +762,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>226.7496439956706</v>
+        <v>5439.66081381876</v>
       </c>
       <c r="D14" t="n">
-        <v>248.3871758058352</v>
+        <v>5847.534005530913</v>
       </c>
       <c r="E14" t="n">
-        <v>254.6964924804383</v>
+        <v>6008.279625480495</v>
       </c>
       <c r="F14" t="n">
-        <v>12.32498009359663</v>
+        <v>10.4532034463846</v>
       </c>
     </row>
     <row r="15">
@@ -782,22 +782,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>246.4777027410842</v>
+        <v>5369.51663132838</v>
       </c>
       <c r="D15" t="n">
-        <v>252.1082459683153</v>
+        <v>5555.409804199409</v>
       </c>
       <c r="E15" t="n">
-        <v>264.0564282068563</v>
+        <v>5890.014170788764</v>
       </c>
       <c r="F15" t="n">
-        <v>7.131973914994604</v>
+        <v>9.693564154798363</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_all</t>
+          <t>hsr_distance_per30otip</t>
         </is>
       </c>
       <c r="B16" s="1" t="inlineStr">
@@ -806,16 +806,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>88.43482101811608</v>
+        <v>4298.319412951832</v>
       </c>
       <c r="D16" t="n">
-        <v>94.68881990573875</v>
+        <v>4609.603463227181</v>
       </c>
       <c r="E16" t="n">
-        <v>98.25581575995547</v>
+        <v>4720.93071542512</v>
       </c>
       <c r="F16" t="n">
-        <v>11.10534812958748</v>
+        <v>9.832012511677515</v>
       </c>
     </row>
     <row r="17">
@@ -826,22 +826,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>89.84853943724046</v>
+        <v>4230.344428031308</v>
       </c>
       <c r="D17" t="n">
-        <v>93.38509242795836</v>
+        <v>4370.412090800873</v>
       </c>
       <c r="E17" t="n">
-        <v>96.39953746227864</v>
+        <v>4633.719545009693</v>
       </c>
       <c r="F17" t="n">
-        <v>7.291156947091031</v>
+        <v>9.535278364227798</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_otip</t>
+          <t>hi_distance_per_Match</t>
         </is>
       </c>
       <c r="B18" s="1" t="inlineStr">
@@ -850,16 +850,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>372.6377557685071</v>
+        <v>6684.369914484892</v>
       </c>
       <c r="D18" t="n">
-        <v>413.3315748917781</v>
+        <v>6982.550369179889</v>
       </c>
       <c r="E18" t="n">
-        <v>413.2212581680216</v>
+        <v>7327.456122698981</v>
       </c>
       <c r="F18" t="n">
-        <v>10.89087237438335</v>
+        <v>9.62074535732283</v>
       </c>
     </row>
     <row r="19">
@@ -870,22 +870,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>415.4714190587681</v>
+        <v>6733.326361891136</v>
       </c>
       <c r="D19" t="n">
-        <v>425.1069623861312</v>
+        <v>6910.531284109713</v>
       </c>
       <c r="E19" t="n">
-        <v>438.049735734262</v>
+        <v>7153.485638910261</v>
       </c>
       <c r="F19" t="n">
-        <v>5.434385047867811</v>
+        <v>6.239995723319102</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_otip</t>
+          <t>hi_count_per30otip</t>
         </is>
       </c>
       <c r="B20" s="1" t="inlineStr">
@@ -894,16 +894,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>46.80386024210457</v>
+        <v>445.2038186884732</v>
       </c>
       <c r="D20" t="n">
-        <v>51.72276474536343</v>
+        <v>482.0964438710967</v>
       </c>
       <c r="E20" t="n">
-        <v>51.76364638199163</v>
+        <v>487.7809369356904</v>
       </c>
       <c r="F20" t="n">
-        <v>10.59695955468489</v>
+        <v>9.563511465971954</v>
       </c>
     </row>
     <row r="21">
@@ -914,22 +914,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>50.48564294490428</v>
+        <v>443.7456760820809</v>
       </c>
       <c r="D21" t="n">
-        <v>52.32048826977314</v>
+        <v>461.1986529634568</v>
       </c>
       <c r="E21" t="n">
-        <v>54.91828312350329</v>
+        <v>482.8530154606234</v>
       </c>
       <c r="F21" t="n">
-        <v>8.780001442066254</v>
+        <v>8.813007424394311</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
         <is>
-          <t>sprint_count_full_tip</t>
+          <t>hi_distance_per30tip</t>
         </is>
       </c>
       <c r="B22" s="1" t="inlineStr">
@@ -938,16 +938,16 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>38.66481436205228</v>
+        <v>4816.733637518599</v>
       </c>
       <c r="D22" t="n">
-        <v>39.34931314487949</v>
+        <v>5182.642962154316</v>
       </c>
       <c r="E22" t="n">
-        <v>42.59121228266082</v>
+        <v>5250.909572515527</v>
       </c>
       <c r="F22" t="n">
-        <v>10.15496384863576</v>
+        <v>9.013907923307945</v>
       </c>
     </row>
     <row r="23">
@@ -958,22 +958,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>36.26317787864867</v>
+        <v>5018.918913827517</v>
       </c>
       <c r="D23" t="n">
-        <v>37.94439031012171</v>
+        <v>5143.527686100112</v>
       </c>
       <c r="E23" t="n">
-        <v>39.26160621524579</v>
+        <v>5270.119232484338</v>
       </c>
       <c r="F23" t="n">
-        <v>8.2685206096142</v>
+        <v>5.005068282030702</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_otip</t>
+          <t>hsr_count_per30otip</t>
         </is>
       </c>
       <c r="B24" s="1" t="inlineStr">
@@ -982,16 +982,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>269.1145739129819</v>
+        <v>389.2794838431999</v>
       </c>
       <c r="D24" t="n">
-        <v>295.7264310572242</v>
+        <v>418.8705657759254</v>
       </c>
       <c r="E24" t="n">
-        <v>296.1021124432052</v>
+        <v>424.2919258290721</v>
       </c>
       <c r="F24" t="n">
-        <v>10.02827090997667</v>
+        <v>8.994165744417966</v>
       </c>
     </row>
     <row r="25">
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>305.5568831931324</v>
+        <v>386.7723970045528</v>
       </c>
       <c r="D25" t="n">
-        <v>310.6382529620406</v>
+        <v>401.2340348763826</v>
       </c>
       <c r="E25" t="n">
-        <v>319.888315931185</v>
+        <v>419.6981183206886</v>
       </c>
       <c r="F25" t="n">
-        <v>4.690266698719466</v>
+        <v>8.51294496999698</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>sprint_distance_full_tip</t>
+          <t>hsr_distance_per_Match</t>
         </is>
       </c>
       <c r="B26" s="1" t="inlineStr">
@@ -1026,16 +1026,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>757.7623611774042</v>
+        <v>5152.708273705066</v>
       </c>
       <c r="D26" t="n">
-        <v>781.8154777733826</v>
+        <v>5365.459646537379</v>
       </c>
       <c r="E26" t="n">
-        <v>833.0540919576094</v>
+        <v>5605.958141032909</v>
       </c>
       <c r="F26" t="n">
-        <v>9.936061044681303</v>
+        <v>8.796342491206724</v>
       </c>
     </row>
     <row r="27">
@@ -1046,22 +1046,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>707.0020769606567</v>
+        <v>5194.68376096633</v>
       </c>
       <c r="D27" t="n">
-        <v>742.2055356201979</v>
+        <v>5311.868269531948</v>
       </c>
       <c r="E27" t="n">
-        <v>767.7258913069584</v>
+        <v>5495.630759306719</v>
       </c>
       <c r="F27" t="n">
-        <v>8.588915977071565</v>
+        <v>5.793365143837103</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_all</t>
+          <t>medaccel_count_per30otip</t>
         </is>
       </c>
       <c r="B28" s="1" t="inlineStr">
@@ -1070,16 +1070,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>6684.369914484892</v>
+        <v>605.1489012004753</v>
       </c>
       <c r="D28" t="n">
-        <v>6982.550369179889</v>
+        <v>664.5854693486704</v>
       </c>
       <c r="E28" t="n">
-        <v>7327.456122698981</v>
+        <v>658.0967279859673</v>
       </c>
       <c r="F28" t="n">
-        <v>9.62074535732283</v>
+        <v>8.749553486828741</v>
       </c>
     </row>
     <row r="29">
@@ -1090,22 +1090,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>6733.326361891136</v>
+        <v>619.8367992604511</v>
       </c>
       <c r="D29" t="n">
-        <v>6910.531284109713</v>
+        <v>643.911466616855</v>
       </c>
       <c r="E29" t="n">
-        <v>7153.485638910261</v>
+        <v>658.1564599541441</v>
       </c>
       <c r="F29" t="n">
-        <v>6.239995723319102</v>
+        <v>6.182217761096712</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_all</t>
+          <t>highdecel_count_per30otip</t>
         </is>
       </c>
       <c r="B30" s="1" t="inlineStr">
@@ -1114,16 +1114,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5152.708273705066</v>
+        <v>80.55625354059624</v>
       </c>
       <c r="D30" t="n">
-        <v>5365.459646537379</v>
+        <v>87.11016268987215</v>
       </c>
       <c r="E30" t="n">
-        <v>5605.958141032909</v>
+        <v>87.50970749138959</v>
       </c>
       <c r="F30" t="n">
-        <v>8.796342491206724</v>
+        <v>8.631799078502526</v>
       </c>
     </row>
     <row r="31">
@@ -1134,22 +1134,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5194.68376096633</v>
+        <v>78.09889767017577</v>
       </c>
       <c r="D31" t="n">
-        <v>5311.868269531948</v>
+        <v>83.35773336891417</v>
       </c>
       <c r="E31" t="n">
-        <v>5495.630759306719</v>
+        <v>86.57154533867509</v>
       </c>
       <c r="F31" t="n">
-        <v>5.793365143837103</v>
+        <v>10.84861364404998</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_all</t>
+          <t>hi_count_per_Match</t>
         </is>
       </c>
       <c r="B32" s="1" t="inlineStr">
@@ -1193,7 +1193,7 @@
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_otip</t>
+          <t>hsr_distance_per30tip</t>
         </is>
       </c>
       <c r="B34" s="1" t="inlineStr">
@@ -1202,16 +1202,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>6401.619088002421</v>
+        <v>3554.212068186391</v>
       </c>
       <c r="D34" t="n">
-        <v>6853.733652790443</v>
+        <v>3797.498121861048</v>
       </c>
       <c r="E34" t="n">
-        <v>6908.794767104393</v>
+        <v>3832.356007584893</v>
       </c>
       <c r="F34" t="n">
-        <v>7.92261570283828</v>
+        <v>7.825755302790093</v>
       </c>
     </row>
     <row r="35">
@@ -1222,22 +1222,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>7029.398236223848</v>
+        <v>3737.946029468879</v>
       </c>
       <c r="D35" t="n">
-        <v>7090.395590995666</v>
+        <v>3801.506561058772</v>
       </c>
       <c r="E35" t="n">
-        <v>7405.223471572644</v>
+        <v>3850.15434948871</v>
       </c>
       <c r="F35" t="n">
-        <v>5.346478072790001</v>
+        <v>3.001871057934293</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_all</t>
+          <t>hsr_count_per_Match</t>
         </is>
       </c>
       <c r="B36" s="1" t="inlineStr">
@@ -1281,7 +1281,7 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_otip</t>
+          <t>meddecel_count_per30otip</t>
         </is>
       </c>
       <c r="B38" s="1" t="inlineStr">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>33786.21131442336</v>
+        <v>432.4094432790978</v>
       </c>
       <c r="D38" t="n">
-        <v>35557.73874765011</v>
+        <v>467.9496485354565</v>
       </c>
       <c r="E38" t="n">
-        <v>36105.38327614157</v>
+        <v>463.5797350674785</v>
       </c>
       <c r="F38" t="n">
-        <v>6.864255776225947</v>
+        <v>7.208513198048235</v>
       </c>
     </row>
     <row r="39">
@@ -1310,22 +1310,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>37682.72032574103</v>
+        <v>449.0894647802614</v>
       </c>
       <c r="D39" t="n">
-        <v>37875.22498564087</v>
+        <v>463.1248577131294</v>
       </c>
       <c r="E39" t="n">
-        <v>38516.95176059572</v>
+        <v>471.8408094823985</v>
       </c>
       <c r="F39" t="n">
-        <v>2.213830179040507</v>
+        <v>5.06610519426663</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>hi_distance_full_tip</t>
+          <t>hi_count_per30tip</t>
         </is>
       </c>
       <c r="B40" s="1" t="inlineStr">
@@ -1334,16 +1334,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3000.154345636548</v>
+        <v>394.5486465400862</v>
       </c>
       <c r="D40" t="n">
-        <v>2983.627093050226</v>
+        <v>418.6530603254297</v>
       </c>
       <c r="E40" t="n">
-        <v>3201.78844172178</v>
+        <v>421.5667514436827</v>
       </c>
       <c r="F40" t="n">
-        <v>6.720790761265005</v>
+        <v>6.847851371567552</v>
       </c>
     </row>
     <row r="41">
@@ -1354,22 +1354,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2813.741395752375</v>
+        <v>406.5787832890011</v>
       </c>
       <c r="D41" t="n">
-        <v>2906.84415604861</v>
+        <v>418.2659055280428</v>
       </c>
       <c r="E41" t="n">
-        <v>2943.20713499472</v>
+        <v>429.2072883815264</v>
       </c>
       <c r="F41" t="n">
-        <v>4.601195384827677</v>
+        <v>5.565589259103245</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_all</t>
+          <t>highdecel_count_per_Match</t>
         </is>
       </c>
       <c r="B42" s="1" t="inlineStr">
@@ -1413,7 +1413,7 @@
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>hi_count_full_tip</t>
+          <t>running_distance_per30otip</t>
         </is>
       </c>
       <c r="B44" s="1" t="inlineStr">
@@ -1422,16 +1422,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>250.8776109816052</v>
+        <v>10831.29179168015</v>
       </c>
       <c r="D44" t="n">
-        <v>248.734890513981</v>
+        <v>11433.85820271408</v>
       </c>
       <c r="E44" t="n">
-        <v>265.7118812988473</v>
+        <v>11521.3629572425</v>
       </c>
       <c r="F44" t="n">
-        <v>5.91295104381787</v>
+        <v>6.371088313698761</v>
       </c>
     </row>
     <row r="45">
@@ -1442,22 +1442,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>233.8312955270938</v>
+        <v>10954.5265959301</v>
       </c>
       <c r="D45" t="n">
-        <v>242.7086526873697</v>
+        <v>11205.07353749052</v>
       </c>
       <c r="E45" t="n">
-        <v>246.6854268767276</v>
+        <v>11637.34550133947</v>
       </c>
       <c r="F45" t="n">
-        <v>5.497181769727817</v>
+        <v>6.233212356826565</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>hsr_distance_full_tip</t>
+          <t>hsr_count_per30tip</t>
         </is>
       </c>
       <c r="B46" s="1" t="inlineStr">
@@ -1466,16 +1466,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>2242.391984459144</v>
+        <v>333.3728052379569</v>
       </c>
       <c r="D46" t="n">
-        <v>2201.811615276843</v>
+        <v>352.0503627929353</v>
       </c>
       <c r="E46" t="n">
-        <v>2368.73434976417</v>
+        <v>353.8984055538239</v>
       </c>
       <c r="F46" t="n">
-        <v>5.63426761157901</v>
+        <v>6.156951015010407</v>
       </c>
     </row>
     <row r="47">
@@ -1486,22 +1486,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2106.739318791719</v>
+        <v>343.4156053047926</v>
       </c>
       <c r="D47" t="n">
-        <v>2164.638620428413</v>
+        <v>352.9788850584641</v>
       </c>
       <c r="E47" t="n">
-        <v>2175.481243687761</v>
+        <v>360.9100894450536</v>
       </c>
       <c r="F47" t="n">
-        <v>3.262953526469854</v>
+        <v>5.0942600947718</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="inlineStr">
         <is>
-          <t>hsr_count_full_tip</t>
+          <t>highaccel_count_per30tip</t>
         </is>
       </c>
       <c r="B48" s="1" t="inlineStr">
@@ -1510,16 +1510,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>212.2127966195529</v>
+        <v>35.06103400136193</v>
       </c>
       <c r="D48" t="n">
-        <v>209.3855773691014</v>
+        <v>35.25460487650911</v>
       </c>
       <c r="E48" t="n">
-        <v>223.1206690161865</v>
+        <v>33.19549194978954</v>
       </c>
       <c r="F48" t="n">
-        <v>5.140063450645163</v>
+        <v>-5.320841511690511</v>
       </c>
     </row>
     <row r="49">
@@ -1530,22 +1530,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>197.5681176484451</v>
+        <v>32.95342662300614</v>
       </c>
       <c r="D49" t="n">
-        <v>204.764262377248</v>
+        <v>34.29579820573481</v>
       </c>
       <c r="E49" t="n">
-        <v>207.4238206614818</v>
+        <v>33.74866017261775</v>
       </c>
       <c r="F49" t="n">
-        <v>4.988508839555808</v>
+        <v>2.413204425473711</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_tip</t>
+          <t>total_metersperminute_per30otip</t>
         </is>
       </c>
       <c r="B50" s="1" t="inlineStr">
@@ -1554,16 +1554,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>22.69628049283338</v>
+        <v>1854.429759905351</v>
       </c>
       <c r="D50" t="n">
-        <v>21.58080066424091</v>
+        <v>1921.369056708694</v>
       </c>
       <c r="E50" t="n">
-        <v>21.64457394870383</v>
+        <v>1932.535195823294</v>
       </c>
       <c r="F50" t="n">
-        <v>-4.633827751915754</v>
+        <v>4.211830375388775</v>
       </c>
     </row>
     <row r="51">
@@ -1574,22 +1574,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>19.59184374391782</v>
+        <v>1898.640765806154</v>
       </c>
       <c r="D51" t="n">
-        <v>20.58435855497999</v>
+        <v>1933.397142085327</v>
       </c>
       <c r="E51" t="n">
-        <v>19.89319085743011</v>
+        <v>1946.887517137761</v>
       </c>
       <c r="F51" t="n">
-        <v>1.538125341602118</v>
+        <v>2.541120584815937</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_otip</t>
+          <t>total_distance_per30otip</t>
         </is>
       </c>
       <c r="B52" s="1" t="inlineStr">
@@ -1598,16 +1598,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>1854.429759905351</v>
+        <v>55632.92760544742</v>
       </c>
       <c r="D52" t="n">
-        <v>1921.369056708694</v>
+        <v>57641.09910175361</v>
       </c>
       <c r="E52" t="n">
-        <v>1932.535195823294</v>
+        <v>57976.0431006922</v>
       </c>
       <c r="F52" t="n">
-        <v>4.211830375388775</v>
+        <v>4.211742211127771</v>
       </c>
     </row>
     <row r="53">
@@ -1618,22 +1618,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>1898.640765806154</v>
+        <v>56959.21772041785</v>
       </c>
       <c r="D53" t="n">
-        <v>1933.397142085327</v>
+        <v>58001.91795405049</v>
       </c>
       <c r="E53" t="n">
-        <v>1946.887517137761</v>
+        <v>58406.64269388697</v>
       </c>
       <c r="F53" t="n">
-        <v>2.541120584815937</v>
+        <v>2.541160204435652</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_all</t>
+          <t>medaccel_count_per_Match</t>
         </is>
       </c>
       <c r="B54" s="1" t="inlineStr">
@@ -1677,7 +1677,7 @@
     <row r="56">
       <c r="A56" s="1" t="inlineStr">
         <is>
-          <t>running_distance_full_all</t>
+          <t>running_distance_per_Match</t>
         </is>
       </c>
       <c r="B56" s="1" t="inlineStr">
@@ -1721,7 +1721,7 @@
     <row r="58">
       <c r="A58" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_otip</t>
+          <t>highdecel_count_per30tip</t>
         </is>
       </c>
       <c r="B58" s="1" t="inlineStr">
@@ -1730,16 +1730,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>19.51677973009632</v>
+        <v>60.58978693114883</v>
       </c>
       <c r="D58" t="n">
-        <v>20.9885927830018</v>
+        <v>65.84404059977064</v>
       </c>
       <c r="E58" t="n">
-        <v>20.1742622769974</v>
+        <v>62.5715200188993</v>
       </c>
       <c r="F58" t="n">
-        <v>3.368806514156614</v>
+        <v>3.27073783903946</v>
       </c>
     </row>
     <row r="59">
@@ -1750,22 +1750,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>20.45124364034154</v>
+        <v>62.34715092806852</v>
       </c>
       <c r="D59" t="n">
-        <v>20.55151676233292</v>
+        <v>63.71621761133179</v>
       </c>
       <c r="E59" t="n">
-        <v>20.54419154862124</v>
+        <v>65.13215931947869</v>
       </c>
       <c r="F59" t="n">
-        <v>0.4544853599824656</v>
+        <v>4.466937702772177</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="inlineStr">
         <is>
-          <t>psv99</t>
+          <t>medaccel_count_per30tip</t>
         </is>
       </c>
       <c r="B60" s="1" t="inlineStr">
@@ -1774,16 +1774,16 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>358.3587389697205</v>
+        <v>541.4357373350766</v>
       </c>
       <c r="D60" t="n">
-        <v>372.0077376502733</v>
+        <v>576.2573550139537</v>
       </c>
       <c r="E60" t="n">
-        <v>369.8597497234899</v>
+        <v>557.5839805929625</v>
       </c>
       <c r="F60" t="n">
-        <v>3.209356854763671</v>
+        <v>2.98248566623378</v>
       </c>
     </row>
     <row r="61">
@@ -1794,22 +1794,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>362.6029586435135</v>
+        <v>555.0669001122453</v>
       </c>
       <c r="D61" t="n">
-        <v>371.437118524194</v>
+        <v>577.9363457536414</v>
       </c>
       <c r="E61" t="n">
-        <v>366.6518251724366</v>
+        <v>583.6079803322997</v>
       </c>
       <c r="F61" t="n">
-        <v>1.116611553328148</v>
+        <v>5.141917166071838</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_all</t>
+          <t>total_metersperminute_per_Match</t>
         </is>
       </c>
       <c r="B62" s="1" t="inlineStr">
@@ -1853,7 +1853,7 @@
     <row r="64">
       <c r="A64" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_all</t>
+          <t>meddecel_count_per_Match</t>
         </is>
       </c>
       <c r="B64" s="1" t="inlineStr">
@@ -1897,7 +1897,7 @@
     <row r="66">
       <c r="A66" s="1" t="inlineStr">
         <is>
-          <t>total_metersperminute_full_tip</t>
+          <t>total_distance_per30tip</t>
         </is>
       </c>
       <c r="B66" s="1" t="inlineStr">
@@ -1906,16 +1906,16 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>1759.309419383992</v>
+        <v>52779.28488088788</v>
       </c>
       <c r="D66" t="n">
-        <v>1807.588149029572</v>
+        <v>54227.62989991539</v>
       </c>
       <c r="E66" t="n">
-        <v>1789.212073300521</v>
+        <v>53676.37618698038</v>
       </c>
       <c r="F66" t="n">
-        <v>1.699681340136286</v>
+        <v>1.699703412270655</v>
       </c>
     </row>
     <row r="67">
@@ -1926,22 +1926,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>1785.157316325987</v>
+        <v>53554.73656590997</v>
       </c>
       <c r="D67" t="n">
-        <v>1812.821493985028</v>
+        <v>54384.65512879605</v>
       </c>
       <c r="E67" t="n">
-        <v>1811.942326599979</v>
+        <v>54358.29319422852</v>
       </c>
       <c r="F67" t="n">
-        <v>1.50042856329985</v>
+        <v>1.500439886077331</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="1" t="inlineStr">
         <is>
-          <t>medaccel_count_full_tip</t>
+          <t>total_metersperminute_per30tip</t>
         </is>
       </c>
       <c r="B68" s="1" t="inlineStr">
@@ -1950,16 +1950,16 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>371.0251598776892</v>
+        <v>1759.309419383992</v>
       </c>
       <c r="D68" t="n">
-        <v>367.4935104648872</v>
+        <v>1807.588149029572</v>
       </c>
       <c r="E68" t="n">
-        <v>377.0421632698668</v>
+        <v>1789.212073300521</v>
       </c>
       <c r="F68" t="n">
-        <v>1.621723818988764</v>
+        <v>1.699681340136286</v>
       </c>
     </row>
     <row r="69">
@@ -1970,22 +1970,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>337.3442341519182</v>
+        <v>1785.157316325987</v>
       </c>
       <c r="D69" t="n">
-        <v>355.7742733909068</v>
+        <v>1812.821493985028</v>
       </c>
       <c r="E69" t="n">
-        <v>358.8972196207185</v>
+        <v>1811.942326599979</v>
       </c>
       <c r="F69" t="n">
-        <v>6.389018482258763</v>
+        <v>1.50042856329985</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="1" t="inlineStr">
         <is>
-          <t>highdecel_count_full_tip</t>
+          <t>running_distance_per30tip</t>
         </is>
       </c>
       <c r="B70" s="1" t="inlineStr">
@@ -1994,16 +1994,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>39.54145178760992</v>
+        <v>8841.44556805604</v>
       </c>
       <c r="D70" t="n">
-        <v>40.32643280579968</v>
+        <v>9196.556168332765</v>
       </c>
       <c r="E70" t="n">
-        <v>40.17701143397706</v>
+        <v>8971.73450095447</v>
       </c>
       <c r="F70" t="n">
-        <v>1.607325016241034</v>
+        <v>1.473615732806867</v>
       </c>
     </row>
     <row r="71">
@@ -2014,22 +2014,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>36.57610884996854</v>
+        <v>9019.189982039867</v>
       </c>
       <c r="D71" t="n">
-        <v>37.81427744046337</v>
+        <v>9174.708690454891</v>
       </c>
       <c r="E71" t="n">
-        <v>38.7308422683323</v>
+        <v>9342.483909916629</v>
       </c>
       <c r="F71" t="n">
-        <v>5.891095269872085</v>
+        <v>3.584511785654207</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="1" t="inlineStr">
         <is>
-          <t>highaccel_count_full_all</t>
+          <t>highaccel_count_per_Match</t>
         </is>
       </c>
       <c r="B72" s="1" t="inlineStr">
@@ -2073,7 +2073,7 @@
     <row r="74">
       <c r="A74" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_all</t>
+          <t>total_distance_per_Match</t>
         </is>
       </c>
       <c r="B74" s="1" t="inlineStr">
@@ -2117,7 +2117,7 @@
     <row r="76">
       <c r="A76" s="1" t="inlineStr">
         <is>
-          <t>meddecel_count_full_tip</t>
+          <t>meddecel_count_per30tip</t>
         </is>
       </c>
       <c r="B76" s="1" t="inlineStr">
@@ -2126,16 +2126,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>267.4500914142426</v>
+        <v>377.9390679823686</v>
       </c>
       <c r="D76" t="n">
-        <v>260.9359912541216</v>
+        <v>395.7509964370398</v>
       </c>
       <c r="E76" t="n">
-        <v>265.7629103633116</v>
+        <v>380.6166240120442</v>
       </c>
       <c r="F76" t="n">
-        <v>-0.6308395865596563</v>
+        <v>0.7084623571650891</v>
       </c>
     </row>
     <row r="77">
@@ -2146,22 +2146,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>236.2798363565878</v>
+        <v>379.0133048676233</v>
       </c>
       <c r="D77" t="n">
-        <v>249.8672855776814</v>
+        <v>393.3060970111102</v>
       </c>
       <c r="E77" t="n">
-        <v>251.367117096221</v>
+        <v>394.8951918772374</v>
       </c>
       <c r="F77" t="n">
-        <v>6.385344163208172</v>
+        <v>4.190324404353345</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" s="1" t="inlineStr">
         <is>
-          <t>total_distance_full_tip</t>
+          <t>highaccel_count_per30otip</t>
         </is>
       </c>
       <c r="B78" s="1" t="inlineStr">
@@ -2170,16 +2170,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>37054.67228683398</v>
+        <v>33.89874227384239</v>
       </c>
       <c r="D78" t="n">
-        <v>35483.45315552852</v>
+        <v>35.54053201110101</v>
       </c>
       <c r="E78" t="n">
-        <v>37075.76012753663</v>
+        <v>33.66195418302254</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0569100720670506</v>
+        <v>-0.6985158591047939</v>
       </c>
     </row>
     <row r="79">
@@ -2190,64 +2190,20 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>32940.96424181577</v>
+        <v>31.80792580994978</v>
       </c>
       <c r="D79" t="n">
-        <v>34213.0379415219</v>
+        <v>32.53516214354748</v>
       </c>
       <c r="E79" t="n">
-        <v>34152.02340188321</v>
+        <v>32.73901590445519</v>
       </c>
       <c r="F79" t="n">
-        <v>3.676453279197275</v>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" s="1" t="inlineStr">
-        <is>
-          <t>running_distance_full_tip</t>
-        </is>
-      </c>
-      <c r="B80" s="1" t="inlineStr">
-        <is>
-          <t>Top 5</t>
-        </is>
-      </c>
-      <c r="C80" t="n">
-        <v>5879.473802624165</v>
-      </c>
-      <c r="D80" t="n">
-        <v>5652.00052074328</v>
-      </c>
-      <c r="E80" t="n">
-        <v>5882.471214674826</v>
-      </c>
-      <c r="F80" t="n">
-        <v>0.05098095767215549</v>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" s="1" t="n"/>
-      <c r="B81" s="1" t="inlineStr">
-        <is>
-          <t>Top 15</t>
-        </is>
-      </c>
-      <c r="C81" t="n">
-        <v>5282.933986834801</v>
-      </c>
-      <c r="D81" t="n">
-        <v>5477.507365740687</v>
-      </c>
-      <c r="E81" t="n">
-        <v>5563.321755814361</v>
-      </c>
-      <c r="F81" t="n">
-        <v>5.307425186048017</v>
+        <v>2.927226692078619</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="40">
+  <mergeCells count="39">
     <mergeCell ref="A48:A49"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A70:A71"/>
@@ -2259,7 +2215,6 @@
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A50:A51"/>
     <mergeCell ref="A66:A67"/>
-    <mergeCell ref="A80:A81"/>
     <mergeCell ref="A74:A75"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A56:A57"/>
